--- a/data/data_samples.xlsx
+++ b/data/data_samples.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhalgasbayev Arman\Desktop\BeyimAI_HackNU_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826608DF-86C7-46AA-8758-83E701B4B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F4BEC4-86C0-47D9-BA9D-42CA7705C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{02CDF5C5-0922-433D-A9D7-86B29C3249B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="IELTS" sheetId="2" r:id="rId1"/>
-    <sheet name="MESC" sheetId="4" r:id="rId2"/>
-    <sheet name="UNT" sheetId="3" r:id="rId3"/>
+    <sheet name="UNT" sheetId="3" r:id="rId1"/>
+    <sheet name="IELTS" sheetId="2" r:id="rId2"/>
+    <sheet name="MESC" sheetId="4" r:id="rId3"/>
     <sheet name="TOEFL" sheetId="5" r:id="rId4"/>
     <sheet name="NUET" sheetId="6" r:id="rId5"/>
     <sheet name="SAT" sheetId="7" r:id="rId6"/>
@@ -544,10 +544,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B779665D-06E7-480A-BEB3-E4F2325F921C}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="7" width="24.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">SUM(B3:F3)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD354A22-BD34-456B-A979-0D28F07978C9}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -769,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B460F6-3B52-4848-A23E-94FD07CB1938}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -926,290 +1210,6 @@
       </c>
       <c r="G6" t="s">
         <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B779665D-06E7-480A-BEB3-E4F2325F921C}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="7" width="24.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">SUM(B3:F3)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>140</v>
       </c>
     </row>
   </sheetData>
